--- a/forms/contact/national_officer-edit.xlsx
+++ b/forms/contact/national_officer-edit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="17544" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="17544"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="129">
   <si>
     <t>form_title</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>Sub County Office</t>
-  </si>
-  <si>
-    <t>../../person/name</t>
   </si>
   <si>
     <t>person_place_name</t>
@@ -1774,11 +1771,11 @@
   </sheetPr>
   <dimension ref="A1:M926"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2013,7 +2010,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="8" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -2025,7 +2022,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="10"/>
@@ -2034,7 +2031,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -2046,20 +2043,20 @@
         <v>36</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -2079,7 +2076,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -2102,7 +2099,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -2114,13 +2111,13 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
@@ -2135,18 +2132,18 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -2158,20 +2155,20 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -2186,17 +2183,17 @@
         <v>36</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -2211,17 +2208,17 @@
         <v>36</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -2236,17 +2233,17 @@
         <v>36</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -2261,17 +2258,17 @@
         <v>36</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
@@ -2286,17 +2283,17 @@
         <v>36</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -2311,17 +2308,17 @@
         <v>36</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -2353,15 +2350,15 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -2373,10 +2370,10 @@
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>26</v>
@@ -2390,13 +2387,13 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>1</v>
@@ -2419,10 +2416,10 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>26</v>
@@ -2436,7 +2433,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M28" s="10"/>
     </row>
@@ -2448,7 +2445,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>28</v>
@@ -2465,13 +2462,13 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -2481,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
@@ -2491,13 +2488,13 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -2507,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
@@ -2520,10 +2517,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
@@ -2541,15 +2538,15 @@
         <v>36</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -2564,7 +2561,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>26</v>
@@ -2572,7 +2569,7 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -2587,7 +2584,7 @@
         <v>51</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>26</v>
@@ -2598,7 +2595,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -2610,7 +2607,7 @@
         <v>51</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>26</v>
@@ -2621,7 +2618,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
@@ -2633,7 +2630,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>26</v>
@@ -2644,7 +2641,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
@@ -16407,7 +16404,7 @@
   </sheetPr>
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
@@ -16752,10 +16749,10 @@
         <v>44</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -16786,10 +16783,10 @@
         <v>44</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -16820,10 +16817,10 @@
         <v>44</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -44472,7 +44469,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">NOW()</f>
-        <v>44812.443527083335</v>
+        <v>44837.645338425929</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>27</v>

--- a/forms/contact/national_officer-edit.xlsx
+++ b/forms/contact/national_officer-edit.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="130">
   <si>
     <t>form_title</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>Household</t>
+  </si>
+  <si>
+    <t>../person_name</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1778,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2010,7 +2013,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="8" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -44469,7 +44472,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">NOW()</f>
-        <v>44837.645338425929</v>
+        <v>44839.681269444445</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>27</v>

--- a/forms/contact/national_officer-edit.xlsx
+++ b/forms/contact/national_officer-edit.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="124">
   <si>
     <t>form_title</t>
   </si>
@@ -355,25 +355,16 @@
     <t>../../../inputs/user/facility_id</t>
   </si>
   <si>
-    <t>id_community_unit</t>
-  </si>
-  <si>
     <t>id_chw_area</t>
   </si>
   <si>
     <t>id_house_hold</t>
   </si>
   <si>
-    <t>Select Community Unit</t>
-  </si>
-  <si>
     <t>Select CHW Area</t>
   </si>
   <si>
     <t>Select Household</t>
-  </si>
-  <si>
-    <t>selected(${change_parent}, 'yes') and selected(${edited_place_type}, 'community_unit')</t>
   </si>
   <si>
     <t>selected(${change_parent}, 'yes') and selected(${edited_place_type}, 'chw_area')</t>
@@ -391,19 +382,10 @@
     <t>select-contact type-sub_county_office</t>
   </si>
   <si>
-    <t>select-contact type-community_unit</t>
-  </si>
-  <si>
     <t>select-contact type-chw_area</t>
   </si>
   <si>
     <t>select-contact type-house_hold</t>
-  </si>
-  <si>
-    <t>community_unit</t>
-  </si>
-  <si>
-    <t>Community Unit</t>
   </si>
   <si>
     <t>chw_area</t>
@@ -604,7 +586,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -624,14 +614,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9D2E9"/>
           <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -700,133 +682,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC27BA0"/>
+        <strike/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -989,162 +859,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF9900"/>
           <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1496,26 +1210,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
@@ -1772,13 +1466,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M926"/>
+  <dimension ref="A1:M925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2013,7 +1707,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -2196,7 +1890,7 @@
         <v>75</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -2221,7 +1915,7 @@
         <v>78</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -2246,7 +1940,7 @@
         <v>81</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -2264,22 +1958,22 @@
         <v>108</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
@@ -2289,14 +1983,14 @@
         <v>109</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -2306,23 +2000,15 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>36</v>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>43</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>122</v>
-      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -2333,13 +2019,19 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -2350,25 +2042,25 @@
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="L25" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2376,7 +2068,7 @@
         <v>61</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>26</v>
@@ -2390,7 +2082,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="M26" s="10"/>
     </row>
@@ -2399,7 +2091,7 @@
         <v>61</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>26</v>
@@ -2413,21 +2105,23 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="8" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -2435,49 +2129,50 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="8" t="s">
-        <v>88</v>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>90</v>
       </c>
-      <c r="M28" s="10"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>36</v>
+      <c r="B29" s="12" t="s">
+        <v>91</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>10</v>
+      <c r="C29" s="12" t="s">
+        <v>92</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>89</v>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15" t="b">
+        <f t="shared" ref="G29:G30" si="0">TRUE</f>
+        <v>1</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>28</v>
+      <c r="H29" s="12" t="s">
+        <v>93</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15" t="b">
-        <f t="shared" ref="G30:G31" si="0">TRUE</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H30" s="12" t="s">
@@ -2491,24 +2186,19 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="15" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>93</v>
-      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
@@ -2516,40 +2206,42 @@
       <c r="M31" s="15"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>96</v>
+      <c r="B32" s="8" t="s">
+        <v>98</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>97</v>
+      <c r="C32" s="8" t="s">
+        <v>99</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="8" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -2560,23 +2252,23 @@
       <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>23</v>
+      <c r="A34" s="21" t="s">
+        <v>51</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>101</v>
+      <c r="B34" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
+      <c r="I34" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
@@ -2587,18 +2279,18 @@
         <v>51</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -2610,7 +2302,7 @@
         <v>51</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>26</v>
@@ -2621,7 +2313,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
@@ -2629,23 +2321,17 @@
       <c r="M36" s="10"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>51</v>
+      <c r="A37" s="8" t="s">
+        <v>43</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="17"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
-      <c r="I37" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
@@ -2658,7 +2344,7 @@
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -2669,51 +2355,49 @@
       <c r="M38" s="10"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
-      <c r="B41" s="10"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
@@ -2733,7 +2417,7 @@
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
-      <c r="C43" s="22"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
@@ -2763,7 +2447,7 @@
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
@@ -2780,7 +2464,7 @@
       <c r="B46" s="15"/>
       <c r="C46" s="17"/>
       <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -2795,7 +2479,7 @@
       <c r="B47" s="15"/>
       <c r="C47" s="17"/>
       <c r="D47" s="15"/>
-      <c r="E47" s="17"/>
+      <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -2823,7 +2507,7 @@
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="17"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
@@ -2912,68 +2596,68 @@
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
-      <c r="C59" s="22"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
@@ -2988,7 +2672,7 @@
     <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
+      <c r="C60" s="22"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
@@ -3003,7 +2687,7 @@
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
-      <c r="C61" s="22"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
@@ -3018,7 +2702,7 @@
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
@@ -3033,7 +2717,7 @@
     <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
-      <c r="C63" s="22"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
@@ -3048,7 +2732,7 @@
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
-      <c r="C64" s="17"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
@@ -3063,7 +2747,7 @@
     <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
-      <c r="C65" s="22"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
@@ -3078,7 +2762,7 @@
     <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
-      <c r="C66" s="17"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
@@ -3093,7 +2777,7 @@
     <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
-      <c r="C67" s="22"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
@@ -3108,7 +2792,7 @@
     <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
@@ -3123,7 +2807,7 @@
     <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
-      <c r="C69" s="22"/>
+      <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
@@ -3138,7 +2822,7 @@
     <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
@@ -3151,39 +2835,39 @@
       <c r="M70" s="15"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="23"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
+      <c r="C73" s="22"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
@@ -3198,7 +2882,7 @@
     <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
-      <c r="C74" s="22"/>
+      <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
@@ -3213,7 +2897,7 @@
     <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
+      <c r="C75" s="22"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
@@ -3228,7 +2912,7 @@
     <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
-      <c r="C76" s="22"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
@@ -3243,7 +2927,7 @@
     <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
-      <c r="C77" s="17"/>
+      <c r="C77" s="22"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
@@ -3258,24 +2942,24 @@
     <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
       <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="24"/>
-      <c r="E79" s="15"/>
+      <c r="E79" s="24"/>
       <c r="F79" s="24"/>
       <c r="G79" s="24"/>
       <c r="H79" s="24"/>
@@ -3288,13 +2972,13 @@
     <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
-      <c r="C80" s="22"/>
+      <c r="C80" s="15"/>
       <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
-      <c r="I80" s="15"/>
+      <c r="I80" s="24"/>
       <c r="J80" s="24"/>
       <c r="K80" s="24"/>
       <c r="L80" s="24"/>
@@ -3306,7 +2990,7 @@
       <c r="C81" s="15"/>
       <c r="D81" s="24"/>
       <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
+      <c r="F81" s="24"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
@@ -3316,19 +3000,19 @@
       <c r="M81" s="24"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
@@ -3346,19 +3030,19 @@
       <c r="M83" s="10"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
@@ -4111,40 +3795,40 @@
       <c r="M134" s="23"/>
     </row>
     <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="23"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="23"/>
-      <c r="H135" s="23"/>
-      <c r="I135" s="23"/>
-      <c r="J135" s="23"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="23"/>
-      <c r="M135" s="23"/>
+      <c r="A135" s="22"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
+      <c r="J135" s="22"/>
+      <c r="K135" s="22"/>
+      <c r="L135" s="25"/>
+      <c r="M135" s="15"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="22"/>
       <c r="B136" s="22"/>
       <c r="C136" s="22"/>
-      <c r="D136" s="22"/>
-      <c r="E136" s="22"/>
-      <c r="F136" s="22"/>
-      <c r="G136" s="22"/>
-      <c r="H136" s="22"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
       <c r="I136" s="22"/>
-      <c r="J136" s="22"/>
-      <c r="K136" s="22"/>
-      <c r="L136" s="25"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
       <c r="M136" s="15"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="22"/>
       <c r="B137" s="22"/>
       <c r="C137" s="22"/>
-      <c r="D137" s="15"/>
+      <c r="D137" s="22"/>
       <c r="E137" s="15"/>
       <c r="F137" s="15"/>
       <c r="G137" s="15"/>
@@ -4159,7 +3843,7 @@
       <c r="A138" s="22"/>
       <c r="B138" s="22"/>
       <c r="C138" s="22"/>
-      <c r="D138" s="22"/>
+      <c r="D138" s="15"/>
       <c r="E138" s="15"/>
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
@@ -4201,19 +3885,19 @@
       <c r="M140" s="15"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="22"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="22"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="22"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="L141" s="15"/>
-      <c r="M141" s="15"/>
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="10"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
@@ -4306,19 +3990,19 @@
       <c r="M147" s="10"/>
     </row>
     <row r="148" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="10"/>
-      <c r="I148" s="10"/>
-      <c r="J148" s="10"/>
-      <c r="K148" s="10"/>
-      <c r="L148" s="10"/>
-      <c r="M148" s="10"/>
+      <c r="A148" s="23"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="23"/>
+      <c r="G148" s="23"/>
+      <c r="H148" s="23"/>
+      <c r="I148" s="23"/>
+      <c r="J148" s="23"/>
+      <c r="K148" s="23"/>
+      <c r="L148" s="23"/>
+      <c r="M148" s="23"/>
     </row>
     <row r="149" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
@@ -4876,19 +4560,19 @@
       <c r="M185" s="23"/>
     </row>
     <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="23"/>
-      <c r="B186" s="23"/>
-      <c r="C186" s="23"/>
-      <c r="D186" s="23"/>
-      <c r="E186" s="23"/>
-      <c r="F186" s="23"/>
-      <c r="G186" s="23"/>
-      <c r="H186" s="23"/>
-      <c r="I186" s="23"/>
-      <c r="J186" s="23"/>
-      <c r="K186" s="23"/>
-      <c r="L186" s="23"/>
-      <c r="M186" s="23"/>
+      <c r="A186" s="26"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="26"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="26"/>
+      <c r="F186" s="26"/>
+      <c r="G186" s="26"/>
+      <c r="H186" s="26"/>
+      <c r="I186" s="26"/>
+      <c r="J186" s="26"/>
+      <c r="K186" s="26"/>
+      <c r="L186" s="26"/>
+      <c r="M186" s="26"/>
     </row>
     <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="26"/>
@@ -15975,424 +15659,274 @@
       <c r="L925" s="26"/>
       <c r="M925" s="26"/>
     </row>
-    <row r="926" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A926" s="26"/>
-      <c r="B926" s="26"/>
-      <c r="C926" s="26"/>
-      <c r="D926" s="27"/>
-      <c r="E926" s="26"/>
-      <c r="F926" s="26"/>
-      <c r="G926" s="26"/>
-      <c r="H926" s="26"/>
-      <c r="I926" s="26"/>
-      <c r="J926" s="26"/>
-      <c r="K926" s="26"/>
-      <c r="L926" s="26"/>
-      <c r="M926" s="26"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:M17 A24:M926 A21:A23 D21:D23 A18:E20 G18:M23">
-    <cfRule type="containsText" dxfId="88" priority="55" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A1:M17 A23:M925 A18:E20 A21:A22 D21:D22 G18:M22 B21:C21 E21 F19:F22">
+    <cfRule type="containsText" dxfId="61" priority="55" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M17 A24:M926 A21:A23 D21:D23 A18:E20 G18:M23">
-    <cfRule type="expression" dxfId="87" priority="56">
+  <conditionalFormatting sqref="A1:M17 A23:M925 A18:E20 A21:A22 D21:D22 G18:M22 B21:C21 E21 F19:F22">
+    <cfRule type="expression" dxfId="60" priority="56">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M17 A24:M926 A21:A23 D21:D23 A18:E20 G18:M23">
-    <cfRule type="expression" dxfId="86" priority="57">
+  <conditionalFormatting sqref="A1:M17 A23:M925 A18:E20 A21:A22 D21:D22 G18:M22 B21:C21 E21 F19:F22">
+    <cfRule type="expression" dxfId="59" priority="57">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M17 A24:M926 A21:A23 D21:D23 A18:E20 G18:M23">
-    <cfRule type="cellIs" dxfId="85" priority="58" operator="equal">
+  <conditionalFormatting sqref="A1:M17 A23:M925 A18:E20 A21:A22 D21:D22 G18:M22 B21:C21 E21 F19:F22">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="84" priority="59">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$935, "begin group") = COUNTIF($A$1:$A$935, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="83" priority="60">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$926, "begin group") = COUNTIF($A$1:$A$935, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I926">
-    <cfRule type="expression" dxfId="82" priority="61">
+  <conditionalFormatting sqref="I1:I925">
+    <cfRule type="expression" dxfId="57" priority="61">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C20 C24:C926">
-    <cfRule type="expression" dxfId="81" priority="62">
+  <conditionalFormatting sqref="C23:C925 C1:C21">
+    <cfRule type="expression" dxfId="56" priority="62">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B20 B24:B926">
-    <cfRule type="expression" dxfId="80" priority="63">
+  <conditionalFormatting sqref="B23:B925 B1:B21">
+    <cfRule type="expression" dxfId="55" priority="63">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A926">
-    <cfRule type="cellIs" dxfId="79" priority="64" operator="equal">
+  <conditionalFormatting sqref="A1:A925">
+    <cfRule type="cellIs" dxfId="54" priority="64" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B20 B24:B926">
-    <cfRule type="expression" dxfId="78" priority="65">
-      <formula>COUNTIF($B$2:$B$934,B2)&gt;1</formula>
+  <conditionalFormatting sqref="B23:B925 B2:B21">
+    <cfRule type="expression" dxfId="53" priority="65">
+      <formula>COUNTIF($B$2:$B$933,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="77" priority="66" operator="notEqual">
+    <cfRule type="cellIs" dxfId="52" priority="66" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="76" priority="67" operator="notContains" text="label">
+    <cfRule type="notContainsText" dxfId="51" priority="67" operator="notContains" text="label">
       <formula>ISERROR(SEARCH(("label"),(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="75" priority="68" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="68" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="74" priority="69" operator="notEqual">
+    <cfRule type="cellIs" dxfId="49" priority="69" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="73" priority="70" operator="notEqual">
+    <cfRule type="cellIs" dxfId="48" priority="70" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="72" priority="71" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="71" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="71" priority="72" operator="notContains" text="constraint_message">
+    <cfRule type="notContainsText" dxfId="46" priority="72" operator="notContains" text="constraint_message">
       <formula>ISERROR(SEARCH(("constraint_message"),(H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="70" priority="73" operator="notEqual">
+    <cfRule type="cellIs" dxfId="45" priority="73" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="69" priority="74" operator="notEqual">
+    <cfRule type="cellIs" dxfId="44" priority="74" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="68" priority="75" operator="notContains" text="hint">
+    <cfRule type="notContainsText" dxfId="43" priority="75" operator="notContains" text="hint">
       <formula>ISERROR(SEARCH(("hint"),(K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="67" priority="76" operator="notEqual">
+    <cfRule type="cellIs" dxfId="42" priority="76" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="66" priority="77" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="77" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H926">
-    <cfRule type="expression" dxfId="65" priority="78">
+  <conditionalFormatting sqref="H1:H925">
+    <cfRule type="expression" dxfId="40" priority="78">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M17 A24:M926 A21:A23 D21:D23 A18:E20 G18:M23">
-    <cfRule type="expression" dxfId="64" priority="79">
+  <conditionalFormatting sqref="A1:M17 A23:M925 A18:E20 A21:A22 D21:D22 G18:M22 B21:C21 E21 F19:F22">
+    <cfRule type="expression" dxfId="39" priority="79">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M17 A24:M926 A21:A23 D21:D23 A18:E20 G18:M23">
-    <cfRule type="expression" dxfId="63" priority="80">
+  <conditionalFormatting sqref="A1:M17 A23:M925 A18:E20 A21:A22 D21:D22 G18:M22 B21:C21 E21 F19:F22">
+    <cfRule type="expression" dxfId="38" priority="80">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22">
-    <cfRule type="containsText" dxfId="62" priority="47" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(B21))))</formula>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(B22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22">
-    <cfRule type="expression" dxfId="61" priority="48">
-      <formula>AND($A21="begin group", NOT($B21 = ""))</formula>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="36" priority="40">
+      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22">
-    <cfRule type="expression" dxfId="60" priority="49">
-      <formula>AND($A21="end group", $B21 = "", $C21 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="35" priority="41">
+      <formula>AND($A22="end group", $B22 = "", $C22 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22">
-    <cfRule type="cellIs" dxfId="59" priority="50" operator="equal">
+  <conditionalFormatting sqref="B22">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22">
-    <cfRule type="expression" dxfId="58" priority="51">
-      <formula>AND(AND(NOT($A21 = "end group"), NOT($A21 = "end repeat"), NOT($A21 = "")), $B21 = "")</formula>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="33" priority="43">
+      <formula>AND(AND(NOT($A22 = "end group"), NOT($A22 = "end repeat"), NOT($A22 = "")), $B22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22">
-    <cfRule type="expression" dxfId="57" priority="52">
-      <formula>COUNTIF($B$2:$B$934,B21)&gt;1</formula>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="32" priority="44">
+      <formula>COUNTIF($B$2:$B$933,B22)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22">
-    <cfRule type="expression" dxfId="56" priority="53">
-      <formula>AND($A21="begin repeat", NOT($B21 = ""))</formula>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="31" priority="45">
+      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22">
-    <cfRule type="expression" dxfId="55" priority="54">
-      <formula>AND($A21="end repeat", $B21 = "", $C21 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="30" priority="46">
+      <formula>AND($A22="end repeat", $B22 = "", $C22 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="containsText" dxfId="54" priority="39" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(B23))))</formula>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(C22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="53" priority="40">
-      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="28" priority="26">
+      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="52" priority="41">
-      <formula>AND($A23="end group", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>AND($A22="end group", $B22 = "", $C22 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
+  <conditionalFormatting sqref="C22">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="50" priority="43">
-      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B23 = "")</formula>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="25" priority="29">
+      <formula>AND(AND(NOT($A22 = "end group"), NOT($A22 = "end repeat"), NOT($A22 = "")), $C22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="49" priority="44">
-      <formula>COUNTIF($B$2:$B$934,B23)&gt;1</formula>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="24" priority="30">
+      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="48" priority="45">
-      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="23" priority="31">
+      <formula>AND($A22="end repeat", $B22 = "", $C22 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="47" priority="46">
-      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(E22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="containsText" dxfId="46" priority="32" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(C21))))</formula>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="21" priority="14">
+      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="45" priority="33">
-      <formula>AND($A21="begin group", NOT($B21 = ""))</formula>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="20" priority="15">
+      <formula>AND($A22="end group", $B22 = "", $C22 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="44" priority="34">
-      <formula>AND($A21="end group", $B21 = "", $C21 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="42" priority="36">
-      <formula>AND(AND(NOT($A21 = "end group"), NOT($A21 = "end repeat"), NOT($A21 = "")), $C21 = "")</formula>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="18" priority="17">
+      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="41" priority="37">
-      <formula>AND($A21="begin repeat", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="40" priority="38">
-      <formula>AND($A21="end repeat", $B21 = "", $C21 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="39" priority="25" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(C23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="38" priority="26">
-      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="37" priority="27">
-      <formula>AND($A23="end group", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="35" priority="29">
-      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="34" priority="30">
-      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="33" priority="31">
-      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E22">
-    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(E21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E22">
-    <cfRule type="expression" dxfId="31" priority="20">
-      <formula>AND($A21="begin group", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E22">
-    <cfRule type="expression" dxfId="30" priority="21">
-      <formula>AND($A21="end group", $B21 = "", $C21 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E22">
-    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E22">
-    <cfRule type="expression" dxfId="28" priority="23">
-      <formula>AND($A21="begin repeat", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E22">
-    <cfRule type="expression" dxfId="27" priority="24">
-      <formula>AND($A21="end repeat", $B21 = "", $C21 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(E23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="25" priority="14">
-      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="24" priority="15">
-      <formula>AND($A23="end group", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="22" priority="17">
-      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="21" priority="18">
-      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>AND($A22="end repeat", $B22 = "", $C22 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="19" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>AND($A18="end group", $B18 = "", $C18 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F23">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(F19))))</formula>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="10" priority="97">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$934, "begin group") = COUNTIF($A$1:$A$934, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F23">
-    <cfRule type="expression" dxfId="13" priority="2">
-      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F23">
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>AND($A19="end group", $B19 = "", $C19 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F23">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F23">
-    <cfRule type="expression" dxfId="10" priority="5">
-      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F23">
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>AND($A19="end repeat", $B19 = "", $C19 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="9" priority="98">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$925, "begin group") = COUNTIF($A$1:$A$934, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D926">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D925">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16405,11 +15939,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16752,10 +16286,10 @@
         <v>44</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -16785,11 +16319,11 @@
       <c r="A12" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>125</v>
+      <c r="B12" s="29" t="s">
+        <v>121</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>126</v>
+      <c r="C12" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -16816,15 +16350,9 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>128</v>
-      </c>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -22506,12 +22034,12 @@
       <c r="Z215" s="6"/>
     </row>
     <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="11"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="11"/>
-      <c r="D216" s="11"/>
-      <c r="E216" s="11"/>
-      <c r="F216" s="11"/>
+      <c r="A216" s="6"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
       <c r="G216" s="6"/>
       <c r="H216" s="6"/>
       <c r="I216" s="6"/>
@@ -44344,34 +43872,6 @@
       <c r="X995" s="6"/>
       <c r="Y995" s="6"/>
       <c r="Z995" s="6"/>
-    </row>
-    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A996" s="6"/>
-      <c r="B996" s="6"/>
-      <c r="C996" s="6"/>
-      <c r="D996" s="6"/>
-      <c r="E996" s="6"/>
-      <c r="F996" s="6"/>
-      <c r="G996" s="6"/>
-      <c r="H996" s="6"/>
-      <c r="I996" s="6"/>
-      <c r="J996" s="6"/>
-      <c r="K996" s="6"/>
-      <c r="L996" s="6"/>
-      <c r="M996" s="6"/>
-      <c r="N996" s="6"/>
-      <c r="O996" s="6"/>
-      <c r="P996" s="6"/>
-      <c r="Q996" s="6"/>
-      <c r="R996" s="6"/>
-      <c r="S996" s="6"/>
-      <c r="T996" s="6"/>
-      <c r="U996" s="6"/>
-      <c r="V996" s="6"/>
-      <c r="W996" s="6"/>
-      <c r="X996" s="6"/>
-      <c r="Y996" s="6"/>
-      <c r="Z996" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B3">
@@ -44404,19 +43904,19 @@
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>COUNTIF($B$2:$B$999,B2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $D2 = "", $E2 = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="expression" dxfId="0" priority="99">
+      <formula>COUNTIF($B$2:$B$998,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44472,7 +43972,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">NOW()</f>
-        <v>44839.681269444445</v>
+        <v>44862.962461921299</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>27</v>
